--- a/DiemDanh[Fixedemail].xlsx
+++ b/DiemDanh[Fixedemail].xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="109">
   <si>
     <t>Lã Tuấn Vinh</t>
   </si>
@@ -730,16 +730,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1065,8 +1065,8 @@
   <dimension ref="A1:AFI31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB28" sqref="BB28"/>
+      <pane xSplit="5" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR21" sqref="AR21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,6 +1083,8 @@
     <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
     <col min="18" max="53" width="3.7109375" customWidth="1"/>
+    <col min="54" max="54" width="3.42578125" customWidth="1"/>
+    <col min="55" max="55" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:841" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1137,78 +1139,78 @@
       <c r="Q1" s="19">
         <v>43648</v>
       </c>
-      <c r="R1" s="51">
+      <c r="R1" s="49">
         <v>43649</v>
       </c>
-      <c r="S1" s="52"/>
-      <c r="T1" s="51">
+      <c r="S1" s="50"/>
+      <c r="T1" s="49">
         <v>4</v>
       </c>
-      <c r="U1" s="52"/>
-      <c r="V1" s="51">
+      <c r="U1" s="50"/>
+      <c r="V1" s="49">
         <v>5</v>
       </c>
-      <c r="W1" s="52"/>
-      <c r="X1" s="49">
+      <c r="W1" s="50"/>
+      <c r="X1" s="51">
         <v>43654</v>
       </c>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="49">
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="51">
         <v>43655</v>
       </c>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="49">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="51">
         <v>43656</v>
       </c>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="49">
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="51">
         <v>43657</v>
       </c>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="49">
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="51">
         <v>43658</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="51">
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="49">
         <v>43661</v>
       </c>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="51">
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="49">
         <v>43662</v>
       </c>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="51">
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="49">
         <v>43663</v>
       </c>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="51">
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="49">
         <v>43664</v>
       </c>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="51">
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="49">
         <v>43665</v>
       </c>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="49">
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="51">
         <v>43668</v>
       </c>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="49">
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="51">
         <v>43669</v>
       </c>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="49">
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="51">
         <v>43670</v>
       </c>
-      <c r="AW1" s="50"/>
-      <c r="AX1" s="49">
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="51">
         <v>43671</v>
       </c>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="49">
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="51">
         <v>43672</v>
       </c>
-      <c r="BA1" s="50"/>
+      <c r="BA1" s="52"/>
       <c r="BB1" s="49">
         <v>43673</v>
       </c>
@@ -1301,7 +1303,9 @@
       <c r="AU2" s="46"/>
       <c r="AV2" s="46"/>
       <c r="AW2" s="46"/>
-      <c r="AX2" s="46"/>
+      <c r="AX2" s="46" t="s">
+        <v>94</v>
+      </c>
       <c r="AY2" s="46"/>
       <c r="AZ2" s="46"/>
       <c r="BA2" s="46"/>
@@ -1536,7 +1540,9 @@
       <c r="AU5" s="46"/>
       <c r="AV5" s="46"/>
       <c r="AW5" s="46"/>
-      <c r="AX5" s="46"/>
+      <c r="AX5" s="46" t="s">
+        <v>94</v>
+      </c>
       <c r="AY5" s="46"/>
       <c r="AZ5" s="46"/>
       <c r="BA5" s="46"/>
@@ -1634,7 +1640,7 @@
       <c r="BC6" s="46"/>
     </row>
     <row r="7" spans="1:841" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="37" t="s">
@@ -1711,16 +1717,26 @@
         <v>94</v>
       </c>
       <c r="AR7" s="47" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="AS7" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT7" s="47"/>
-      <c r="AU7" s="47"/>
-      <c r="AV7" s="47"/>
-      <c r="AW7" s="47"/>
-      <c r="AX7" s="47"/>
+        <v>107</v>
+      </c>
+      <c r="AT7" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU7" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV7" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW7" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX7" s="47" t="s">
+        <v>107</v>
+      </c>
       <c r="AY7" s="47"/>
       <c r="AZ7" s="47"/>
       <c r="BA7" s="47"/>
@@ -2424,7 +2440,7 @@
       <c r="AFI7" s="28"/>
     </row>
     <row r="8" spans="1:841" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="38" t="s">
@@ -3208,7 +3224,7 @@
       <c r="AFI8" s="28"/>
     </row>
     <row r="9" spans="1:841" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="38" t="s">
@@ -3991,7 +4007,7 @@
       <c r="AFI9" s="28"/>
     </row>
     <row r="10" spans="1:841" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="38" t="s">
@@ -4773,7 +4789,7 @@
       <c r="AFI10" s="28"/>
     </row>
     <row r="11" spans="1:841" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="38" t="s">
@@ -5642,7 +5658,7 @@
     </row>
     <row r="12" spans="1:841" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="39" t="s">
         <v>13</v>
@@ -5721,8 +5737,8 @@
       <c r="AY12" s="48"/>
       <c r="AZ12" s="48"/>
       <c r="BA12" s="48"/>
-      <c r="BB12" s="48"/>
-      <c r="BC12" s="48"/>
+      <c r="BB12" s="46"/>
+      <c r="BC12" s="46"/>
       <c r="BD12"/>
       <c r="BE12"/>
       <c r="BF12"/>
@@ -6512,7 +6528,7 @@
     </row>
     <row r="13" spans="1:841" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="39" t="s">
         <v>24</v>
@@ -6597,8 +6613,8 @@
       <c r="AY13" s="48"/>
       <c r="AZ13" s="48"/>
       <c r="BA13" s="48"/>
-      <c r="BB13" s="48"/>
-      <c r="BC13" s="48"/>
+      <c r="BB13" s="46"/>
+      <c r="BC13" s="46"/>
       <c r="BD13"/>
       <c r="BE13"/>
       <c r="BF13"/>
@@ -7388,7 +7404,7 @@
     </row>
     <row r="14" spans="1:841" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>14</v>
@@ -7465,8 +7481,8 @@
       <c r="AY14" s="48"/>
       <c r="AZ14" s="48"/>
       <c r="BA14" s="48"/>
-      <c r="BB14" s="48"/>
-      <c r="BC14" s="48"/>
+      <c r="BB14" s="46"/>
+      <c r="BC14" s="46"/>
       <c r="BD14"/>
       <c r="BE14"/>
       <c r="BF14"/>
@@ -8256,7 +8272,7 @@
     </row>
     <row r="15" spans="1:841" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>79</v>
@@ -8331,8 +8347,8 @@
       <c r="AY15" s="48"/>
       <c r="AZ15" s="48"/>
       <c r="BA15" s="48"/>
-      <c r="BB15" s="48"/>
-      <c r="BC15" s="48"/>
+      <c r="BB15" s="46"/>
+      <c r="BC15" s="46"/>
       <c r="BD15"/>
       <c r="BE15"/>
       <c r="BF15"/>
@@ -9122,7 +9138,7 @@
     </row>
     <row r="16" spans="1:841" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B16" s="39" t="s">
         <v>52</v>
@@ -9191,8 +9207,8 @@
       <c r="AY16" s="48"/>
       <c r="AZ16" s="48"/>
       <c r="BA16" s="48"/>
-      <c r="BB16" s="48"/>
-      <c r="BC16" s="48"/>
+      <c r="BB16" s="46"/>
+      <c r="BC16" s="46"/>
       <c r="BD16"/>
       <c r="BE16"/>
       <c r="BF16"/>
@@ -9981,8 +9997,8 @@
       <c r="AFI16" s="28"/>
     </row>
     <row r="17" spans="1:841" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>20</v>
+      <c r="A17" s="6">
+        <v>16</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>51</v>
@@ -10850,8 +10866,8 @@
       <c r="AFI17" s="28"/>
     </row>
     <row r="18" spans="1:841" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>16</v>
+      <c r="A18" s="6">
+        <v>17</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>17</v>
@@ -11714,8 +11730,8 @@
       <c r="AFI18" s="28"/>
     </row>
     <row r="19" spans="1:841" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>17</v>
+      <c r="A19" s="6">
+        <v>18</v>
       </c>
       <c r="B19" s="38" t="s">
         <v>50</v>
@@ -12567,8 +12583,8 @@
       <c r="AFI19" s="28"/>
     </row>
     <row r="20" spans="1:841" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>18</v>
+      <c r="A20" s="6">
+        <v>19</v>
       </c>
       <c r="B20" s="38" t="s">
         <v>11</v>
@@ -13439,8 +13455,8 @@
       <c r="AFI20" s="28"/>
     </row>
     <row r="21" spans="1:841" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <v>19</v>
+      <c r="A21" s="6">
+        <v>20</v>
       </c>
       <c r="B21" s="38" t="s">
         <v>61</v>
@@ -14309,7 +14325,7 @@
     </row>
     <row r="22" spans="1:841" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>54</v>
@@ -15176,7 +15192,7 @@
     </row>
     <row r="23" spans="1:841" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>58</v>
@@ -15252,8 +15268,12 @@
       <c r="AQ23" s="46"/>
       <c r="AR23" s="46"/>
       <c r="AS23" s="46"/>
-      <c r="AT23" s="46"/>
-      <c r="AU23" s="46"/>
+      <c r="AT23" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU23" s="46" t="s">
+        <v>94</v>
+      </c>
       <c r="AV23" s="46"/>
       <c r="AW23" s="46"/>
       <c r="AX23" s="46"/>
@@ -18647,7 +18667,7 @@
       <c r="AFI26" s="28"/>
     </row>
     <row r="27" spans="1:841" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="37" t="s">
@@ -19520,7 +19540,7 @@
       <c r="AFI27" s="28"/>
     </row>
     <row r="28" spans="1:841" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="38" t="s">
@@ -20395,7 +20415,7 @@
       <c r="AFI28" s="28"/>
     </row>
     <row r="29" spans="1:841" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="38" t="s">
@@ -21266,8 +21286,8 @@
       <c r="AFI29" s="28"/>
     </row>
     <row r="30" spans="1:841" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
-        <v>21</v>
+      <c r="A30" s="6">
+        <v>29</v>
       </c>
       <c r="B30" s="38" t="s">
         <v>5</v>
@@ -22140,8 +22160,8 @@
       <c r="AFI30" s="28"/>
     </row>
     <row r="31" spans="1:841" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
-        <v>22</v>
+      <c r="A31" s="6">
+        <v>30</v>
       </c>
       <c r="B31" s="38" t="s">
         <v>56</v>
@@ -23020,14 +23040,14 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
     <mergeCell ref="K27:K31"/>
     <mergeCell ref="K7:K11"/>
     <mergeCell ref="K17:K21"/>
     <mergeCell ref="K22:K26"/>
     <mergeCell ref="K2:K6"/>
     <mergeCell ref="K12:K16"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="R1:S1"/>
